--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -97853,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -98133,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98187,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98241,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98295,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98349,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1748"/>
+  <dimension ref="A1:R1749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97845,7 +97845,7 @@
         <v>23</v>
       </c>
       <c r="O1739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1739" t="n">
         <v>0</v>
@@ -98360,6 +98360,60 @@
       <c r="R1748" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>284.0499877929688</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>284.7000122070312</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>7102213</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1749"/>
+  <dimension ref="A1:R1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98413,7 +98413,63 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>289.7999877929688</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>271.7999877929688</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>283.1499938964844</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>283.1499938964844</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>21740137</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1750"/>
+  <dimension ref="A1:R1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97957,7 +97957,7 @@
         <v>23</v>
       </c>
       <c r="O1741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1741" t="n">
         <v>0</v>
@@ -98469,7 +98469,387 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>283.25</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>288.5499877929688</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>279</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>282.2999877929688</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>282.2999877929688</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>13975757</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>283.4500122070312</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>281.0499877929688</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>281.0499877929688</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>21575510</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>280.4500122070312</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>272.8999938964844</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>275.2999877929688</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>275.2999877929688</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>9998174</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>276.9500122070312</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>283.7000122070312</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>274.1499938964844</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>275.1499938964844</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>275.1499938964844</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>10220519</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>276.4500122070312</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>289.3999938964844</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>285.2000122070312</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>285.2000122070312</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>32849276</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>285.2000122070312</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>294.8999938964844</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>280.6000061035156</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>284.0499877929688</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>284.0499877929688</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>24258154</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>285.7999877929688</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>278.2999877929688</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>281.2000122070312</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>281.2000122070312</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>10866849</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -98525,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98579,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98633,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98687,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98741,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98795,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98849,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1757"/>
+  <dimension ref="A1:R1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98865,6 +98865,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>281.3500061035156</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>281.25</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>281.25</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>9394107</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>282.3999938964844</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>285.8999938964844</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>277</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>278.3500061035156</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>278.3500061035156</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>9503086</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>280.2000122070312</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>304</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>301.9500122070312</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>301.9500122070312</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>73328474</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>308</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>327.7999877929688</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>308</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>90297808</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>323.8999938964844</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>339.4500122070312</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>318.8500061035156</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>49309293</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1762"/>
+  <dimension ref="A1:R1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98917,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98971,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99025,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99079,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99133,7 +99141,495 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>330.0499877929688</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>349.7000122070312</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>329.2999877929688</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>333.0499877929688</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>333.0499877929688</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>39998055</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>336</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>342</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>329.0499877929688</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>329.0499877929688</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>20427634</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>330.2000122070312</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>319</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>22645799</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>331</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>326.5499877929688</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>342.2000122070312</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>342.2000122070312</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>32754852</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>344.1000061035156</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>353.7000122070312</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>334</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>334</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>44226856</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>336.4500122070312</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>326.6000061035156</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>20045456</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>336.1499938964844</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>346.7999877929688</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>335.2999877929688</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>335.2999877929688</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>28114492</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>318</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>322.4500122070312</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>322.4500122070312</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>21811736</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>319.7000122070312</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>327.6000061035156</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>309</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>318</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>318</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>23014164</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1771"/>
+  <dimension ref="A1:R1781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99197,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99251,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99305,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99359,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99405,7 +99413,7 @@
         <v>28</v>
       </c>
       <c r="O1767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1767" t="n">
         <v>0</v>
@@ -99413,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99467,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99521,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99575,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99629,7 +99645,549 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>317</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>329.3999938964844</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>323.6000061035156</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>323.6000061035156</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>24374797</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>327.0499877929688</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>328.8999938964844</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>271.1499938964844</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>307.2999877929688</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>307.2999877929688</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>62191875</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>308.3500061035156</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>323.7999877929688</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>298.1000061035156</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>313.2999877929688</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>313.2999877929688</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>65099839</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>312.3999938964844</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>325</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>308.2999877929688</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>32845784</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>318.7999877929688</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>313.3999938964844</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>314.25</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>314.25</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>11528689</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>316.0499877929688</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>319.6499938964844</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>311.3500061035156</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>317.1000061035156</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>317.1000061035156</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>15123187</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>318</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>321.3500061035156</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>314.6499938964844</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>315.2999877929688</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>315.2999877929688</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>8676497</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>316.8999938964844</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>317.0499877929688</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>312.25</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>312.25</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>6477202</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>315</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>304.3500061035156</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>306.0499877929688</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>306.0499877929688</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>8439723</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>312.2000122070312</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>306.2000122070312</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>306.2000122070312</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>10225336</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1781"/>
+  <dimension ref="A1:R1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99701,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99747,7 +99749,7 @@
         <v>30</v>
       </c>
       <c r="O1773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1773" t="n">
         <v>0</v>
@@ -99755,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99809,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99863,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99917,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99971,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100025,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100079,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100133,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100187,7 +100205,279 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>291.1499938964844</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>299.3500061035156</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>290.1499938964844</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>290.1499938964844</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>15959538</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>298.6000061035156</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>304.1499938964844</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>284.1000061035156</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>285.7999877929688</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>285.7999877929688</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>13874339</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>295</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>287.2999877929688</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>9510995</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>288</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>289.2999877929688</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>289.2999877929688</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>9655442</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>299</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>288</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>292.2000122070312</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>292.2000122070312</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>11122560</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1786"/>
+  <dimension ref="A1:R1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100261,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100315,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100369,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100423,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100477,7 +100485,225 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>295</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>312.8999938964844</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>293.3500061035156</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>300.1000061035156</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>300.1000061035156</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>28812166</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>309.7000122070312</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>309.7000122070312</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>285</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>15275331</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>293.0499877929688</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>294</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>286</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>288</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>288</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>7373985</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>294.2000122070312</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>286</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>7575587</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1790"/>
+  <dimension ref="A1:R1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100541,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100595,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100649,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100703,7 +100709,279 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>292</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>297.7999877929688</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>289</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>7519534</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>291.25</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>291.8500061035156</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>282.1499938964844</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>6249016</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>283.0499877929688</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>285.1499938964844</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>5274462</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>287.1000061035156</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>284.3999938964844</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>285.4500122070312</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>285.4500122070312</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>8212130</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>286.6499938964844</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>287.1000061035156</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>283.25</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>284.3500061035156</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>284.3500061035156</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>3947823</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1795"/>
+  <dimension ref="A1:R1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100765,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100819,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100873,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100927,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100981,7 +100989,279 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>286</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>286.3999938964844</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>278.3999938964844</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>278.3999938964844</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>6022543</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>279</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>282.7999877929688</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>278.6499938964844</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>278.6499938964844</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>4550366</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>280.3500061035156</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>278.7999877929688</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>38822559</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>297.7000122070312</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>285.2000122070312</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>293.6499938964844</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>293.6499938964844</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>13623996</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>296.5499877929688</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>277</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>280.6499938964844</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>280.6499938964844</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>24232089</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1800"/>
+  <dimension ref="A1:R1805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101045,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101099,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101153,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101207,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101261,7 +101269,279 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>279.9500122070312</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>281.7999877929688</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>273.2000122070312</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>9681245</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>272.6000061035156</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>4970658</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>269</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>271.4500122070312</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>265</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>7348737</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>267.75</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>261.2999877929688</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>262</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>262</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>6606159</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>262</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>264.4500122070312</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>253.1000061035156</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>254.1000061035156</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>254.1000061035156</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>8930618</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1805"/>
+  <dimension ref="A1:R1810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101325,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101379,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101433,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101487,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101541,7 +101549,279 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>253.9499969482422</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>258.6000061035156</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>246.3000030517578</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>251.8999938964844</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>249.2729339599609</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>10430112</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>253.1000061035156</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>250.75</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>253.1999969482422</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>250.5593872070312</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>7061118</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>254.3500061035156</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>257.2999877929688</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>245</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>245.9499969482422</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>243.3849945068359</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>7044646</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>247.3500061035156</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>256.8999938964844</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>246.0500030517578</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>254.1000061035156</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>251.4500122070312</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>12471133</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>253.8000030517578</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>255.9499969482422</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>249.1999969482422</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>252.4499969482422</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>252.4499969482422</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>6738177</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1810"/>
+  <dimension ref="A1:R1815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101605,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101659,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101713,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101767,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101821,7 +101829,279 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>254.6999969482422</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>246.25</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>247.25</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>247.25</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>4579642</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>252.25</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>242.5500030517578</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>8323237</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>248.3000030517578</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>240.0500030517578</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>240.8000030517578</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>240.8000030517578</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>5257991</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>242.1499938964844</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>228.0500030517578</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>10794462</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>232.25</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>252.8500061035156</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>231.6000061035156</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>251.0500030517578</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>251.0500030517578</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>39827688</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1815"/>
+  <dimension ref="A1:R1820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101885,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101939,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101993,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102047,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102101,7 +102109,279 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>251.25</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>252.8500061035156</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>241</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>243.4499969482422</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>243.4499969482422</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>11856109</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>246.8000030517578</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>241.5500030517578</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>242.25</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>242.25</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>4447954</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>242.1499938964844</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>236.0500030517578</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>236.9499969482422</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>236.9499969482422</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>3634199</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>237.1999969482422</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>241.8999938964844</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>232.1499938964844</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>234.6000061035156</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>234.6000061035156</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>5795169</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>233.0500030517578</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>8266494</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1820"/>
+  <dimension ref="A1:R1824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102165,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102219,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102273,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102327,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102381,7 +102389,225 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>238</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>243.1000061035156</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>234</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>241.8000030517578</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>241.8000030517578</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>6274873</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>240.7100067138672</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>241.3800048828125</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>234</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>235.9400024414062</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>235.9400024414062</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>4872035</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>230</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>232.9299926757812</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>227.3000030517578</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>228.4799957275391</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>228.4799957275391</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>4070807</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>228</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>230.8999938964844</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>220</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>224.3300018310547</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>224.3300018310547</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>4946422</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1824"/>
+  <dimension ref="A1:R1829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102445,7 +102445,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102499,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102553,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102607,7 +102613,279 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>224.3200073242188</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>224.9400024414062</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>206.5599975585938</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>210.3099975585938</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>210.3099975585938</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>10268119</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>210</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>230.6000061035156</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>208.3800048828125</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>228.8800048828125</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>228.8800048828125</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>10573811</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>230.0500030517578</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>232.5599975585938</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>225.4100036621094</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>226.4499969482422</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>226.4499969482422</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>4619112</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>226.8800048828125</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>228.7799987792969</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>224.3600006103516</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>225.1900024414062</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>225.1900024414062</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>2933364</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>223.25</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>226</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>221</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>223.1000061035156</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>223.1000061035156</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>3150619</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1829"/>
+  <dimension ref="A1:R1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102669,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102723,7 +102725,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102777,7 +102781,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102831,7 +102837,9 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -102885,7 +102893,279 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>223.1000061035156</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>226.9799957275391</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>224</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>224</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>2928109</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>224.3000030517578</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>227.6999969482422</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>222.9700012207031</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>224.6100006103516</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>224.6100006103516</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>2912901</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>228.5200042724609</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>223.0500030517578</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>223.5599975585938</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>223.5599975585938</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>2123389</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>223.1999969482422</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>225.6999969482422</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>217.1199951171875</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>217.1199951171875</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>2123323</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>216.3000030517578</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>216.3200073242188</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>209.8999938964844</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>215.0599975585938</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>215.0599975585938</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>2957130</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HUDCO.NS.xlsx
+++ b/stock_historical_data/1d/HUDCO.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1834"/>
+  <dimension ref="A1:R1839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102661,7 +102661,7 @@
         <v>41</v>
       </c>
       <c r="O1825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1825" t="n">
         <v>0</v>
@@ -102949,7 +102949,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -103003,7 +103005,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -103057,7 +103061,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103111,7 +103117,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103165,7 +103173,279 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>216.1499938964844</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>217.5500030517578</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>207.5500030517578</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>208.6199951171875</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>208.6199951171875</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>2496700</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>208.1000061035156</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>210.6999969482422</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>198</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>199.0700073242188</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>199.0700073242188</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>7033623</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>199.0500030517578</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>205.8000030517578</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>194</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>200.4199981689453</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>200.4199981689453</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>5688379</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>201.9900054931641</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>208.8500061035156</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>198.3399963378906</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>204.3600006103516</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>204.3600006103516</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>5572035</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>204.3600006103516</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>205</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>193</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>193.9900054931641</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>193.9900054931641</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>5584574</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
